--- a/Slimes prices.xlsx
+++ b/Slimes prices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Romain\source\repos\Idle Slime\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0492AE32-FF66-4E87-9239-63AE26F07CD5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1215E783-0274-4FE5-A1DD-9C441CCE1C97}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{33069F45-D496-44DC-B200-5ABFB33D5AF8}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="179017"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
